--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>979816.7494302148</v>
+        <v>1022104.077242097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16722200.63474372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365223</v>
+        <v>967451.7036114035</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6676685.112070505</v>
+        <v>7083733.552509087</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>245.6396217305149</v>
       </c>
       <c r="D2" t="n">
-        <v>189.6386068499985</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1472970361154</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>380.6908215082053</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6525395691203</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398612</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>16.92574903169017</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>118.9185844438374</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>369.0183967539543</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022729</v>
       </c>
       <c r="H10" t="n">
-        <v>10.04027365719996</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>429.4728140925191</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>110.25542315513</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>240.7959839668951</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>221.1610473660671</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225735</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>16.9257490316895</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>35.47248331510059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>303.4098234744076</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.8908081770574</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>119.8634463900541</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>414.9071493079192</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>122.2375779673549</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1947.898110064754</v>
+        <v>1195.45039114996</v>
       </c>
       <c r="C2" t="n">
-        <v>1509.755637248177</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D2" t="n">
-        <v>1318.201488914845</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E2" t="n">
-        <v>884.4267440731403</v>
+        <v>77.64503145187678</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5593144823481</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2653.582812821435</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2394.360510138452</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V2" t="n">
-        <v>2394.360510138452</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W2" t="n">
-        <v>2393.545459589889</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>1974.4029961692</v>
+        <v>1625.995681294811</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.157276509257</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>379.3030186989643</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1056.76860364177</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1056.76860364177</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>1056.76860364177</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>1056.76860364177</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O3" t="n">
-        <v>1056.76860364177</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>808.6510928577823</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>636.0893813410072</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>514.7284752439209</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>514.7284752439209</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1473.281136929249</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1227.889382262661</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.469711576769</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1399.039604666928</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C5" t="n">
-        <v>960.8971318503518</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>916.8036575381091</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>483.0289126964042</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1844.930551071281</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2522.396136014086</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2522.396136014086</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2522.396136014086</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>2248.727358232468</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X5" t="n">
-        <v>1829.584894811779</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1825.339175151836</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2654.307587441926</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2408.428141020381</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2129.995140273486</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1843.039632143916</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.013227730208</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1325.62147306362</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D8" t="n">
-        <v>204.5988168005552</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E8" t="n">
-        <v>174.8644759992544</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>373.9707213604629</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>666.6506660403358</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>666.6506660403358</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M8" t="n">
-        <v>666.6506660403358</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1580.166670150082</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>1473.710208986724</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.619920133277</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>1284.499505460231</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>1201.115667076393</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>1115.730577342577</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H9" t="n">
-        <v>1073.994925158789</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I9" t="n">
-        <v>1100.058598319247</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>1424.616923285459</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K9" t="n">
-        <v>1424.616923285459</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="L9" t="n">
-        <v>1424.616923285459</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="M9" t="n">
-        <v>1942.596323600453</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="N9" t="n">
-        <v>2620.061908543259</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="O9" t="n">
-        <v>2620.061908543259</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="P9" t="n">
-        <v>2620.061908543259</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>2620.061908543259</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>2737.234686637598</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>2673.779249085981</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>2543.600605416583</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>2367.264058416551</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>2168.14654047855</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>1982.823786211744</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>1827.956350450624</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>1701.470571229845</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>2292.605277761144</v>
       </c>
       <c r="C10" t="n">
-        <v>742.8207098557364</v>
+        <v>2120.043566244369</v>
       </c>
       <c r="D10" t="n">
-        <v>576.9427170572591</v>
+        <v>1954.165573445892</v>
       </c>
       <c r="E10" t="n">
-        <v>407.1847133079963</v>
+        <v>1784.407569696629</v>
       </c>
       <c r="F10" t="n">
-        <v>230.4776592697525</v>
+        <v>1607.700515658385</v>
       </c>
       <c r="G10" t="n">
-        <v>64.8863842955802</v>
+        <v>1604.52926163816</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>1604.52926163816</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>1604.52926163816</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>1691.10894680285</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>1965.867401373986</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>2384.077283141946</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>2843.561150322859</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>3285.819953480504</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>3705.489202706285</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>4052.996096676627</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>4199.771050246331</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>4040.529681544328</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>3794.650235122783</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>3516.217234375888</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>3229.261726246319</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>2957.235321832611</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>2711.843567166023</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>2484.423896480132</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>771.7422778803279</v>
+        <v>1637.046905653768</v>
       </c>
       <c r="C11" t="n">
-        <v>771.7422778803279</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="D11" t="n">
-        <v>771.7422778803279</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="E11" t="n">
-        <v>771.7422778803279</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F11" t="n">
-        <v>343.8748482895357</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>373.9707213604629</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>666.6506660403358</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>666.6506660403358</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="M11" t="n">
-        <v>666.6506660403358</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T11" t="n">
-        <v>2625.865572339487</v>
+        <v>3917.469770597835</v>
       </c>
       <c r="U11" t="n">
-        <v>2366.643269656504</v>
+        <v>3658.247467914852</v>
       </c>
       <c r="V11" t="n">
-        <v>2004.026319590331</v>
+        <v>3295.630517848678</v>
       </c>
       <c r="W11" t="n">
-        <v>1599.170865001364</v>
+        <v>2890.775063259712</v>
       </c>
       <c r="X11" t="n">
-        <v>1180.028401580675</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y11" t="n">
-        <v>771.7422778803279</v>
+        <v>2063.346476138676</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K12" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="L12" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="M12" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="N12" t="n">
-        <v>758.2739518360149</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="O12" t="n">
-        <v>758.2739518360149</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D13" t="n">
-        <v>404.381005540484</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E13" t="n">
-        <v>234.6230017912213</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>57.91594775297747</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1142.333694861421</v>
+        <v>1820.118209505448</v>
       </c>
       <c r="C14" t="n">
-        <v>1142.333694861421</v>
+        <v>1381.975736688872</v>
       </c>
       <c r="D14" t="n">
-        <v>706.4239100358659</v>
+        <v>946.0659518633163</v>
       </c>
       <c r="E14" t="n">
-        <v>706.4239100358659</v>
+        <v>512.2912070216114</v>
       </c>
       <c r="F14" t="n">
-        <v>278.5564804450736</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3917.469770597835</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3658.247467914852</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3295.630517848678</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>2890.775063259712</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>2063.346476138676</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K15" t="n">
-        <v>405.3666918594219</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1669.906961769282</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1045.142905119309</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C16" t="n">
-        <v>872.5811936025335</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7032008040562</v>
+        <v>614.7192792351823</v>
       </c>
       <c r="E16" t="n">
-        <v>536.9451970547935</v>
+        <v>444.9612754859195</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>268.2542214476757</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>102.6629464735034</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.754861734053</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V16" t="n">
-        <v>1981.799353604483</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W16" t="n">
-        <v>1709.772949190775</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X16" t="n">
-        <v>1464.381194524188</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y16" t="n">
-        <v>1236.961523838296</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5659,7 +5661,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5935,22 +5937,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
         <v>1373.137619601648</v>
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,22 +5992,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6558,10 +6560,10 @@
         <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6646,10 +6648,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U31" t="n">
         <v>2404.930957497405</v>
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>2867.436536738543</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>2697.67853298928</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>2520.971478951036</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>3625.114530458674</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7172,34 +7174,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3184.458419759167</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3011.896708242392</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>2846.018715443915</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2676.260711694652</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4408.070376373911</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4121.114868244342</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>3849.088463830633</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.696709164046</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.277038478154</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1641.843596920448</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C41" t="n">
-        <v>1641.843596920448</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D41" t="n">
-        <v>1205.933812094893</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E41" t="n">
-        <v>772.1590672531879</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F41" t="n">
-        <v>344.2916376623957</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G41" t="n">
-        <v>344.2916376623957</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>1564.422710590125</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>1564.422710590125</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>2609.166956296512</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>2374.617736571424</v>
+        <v>3858.571921474786</v>
       </c>
       <c r="W41" t="n">
-        <v>2374.617736571424</v>
+        <v>3453.71646688582</v>
       </c>
       <c r="X41" t="n">
-        <v>2068.143167405356</v>
+        <v>3034.57400346513</v>
       </c>
       <c r="Y41" t="n">
-        <v>2068.143167405356</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E43" t="n">
-        <v>283.3068172677021</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>283.3068172677021</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1476.185743340791</v>
+        <v>2491.601853236451</v>
       </c>
       <c r="C44" t="n">
-        <v>1476.185743340791</v>
+        <v>2072.503722622392</v>
       </c>
       <c r="D44" t="n">
-        <v>1040.275958515235</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E44" t="n">
-        <v>606.5012136735304</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F44" t="n">
-        <v>178.6337840827381</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G44" t="n">
-        <v>178.6337840827381</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K44" t="n">
-        <v>535.6838670561251</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L44" t="n">
-        <v>1213.149451998931</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="M44" t="n">
-        <v>1890.615036941736</v>
+        <v>2173.912268843594</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.080621884541</v>
+        <v>3218.656514549981</v>
       </c>
       <c r="O44" t="n">
-        <v>2568.080621884541</v>
+        <v>4198.836181120288</v>
       </c>
       <c r="P44" t="n">
-        <v>2568.080621884541</v>
+        <v>4198.836181120288</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4198.836181120288</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>2517.167459510636</v>
+        <v>4001.121644413998</v>
       </c>
       <c r="U44" t="n">
-        <v>2257.945156827654</v>
+        <v>3741.899341731015</v>
       </c>
       <c r="V44" t="n">
-        <v>1895.32820676148</v>
+        <v>3741.899341731015</v>
       </c>
       <c r="W44" t="n">
-        <v>1895.32820676148</v>
+        <v>3337.043887142048</v>
       </c>
       <c r="X44" t="n">
-        <v>1476.185743340791</v>
+        <v>2917.901423721359</v>
       </c>
       <c r="Y44" t="n">
-        <v>1476.185743340791</v>
+        <v>2917.901423721359</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>3064.120855053443</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>2957.664393890086</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>2862.574105036639</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>2768.453690363593</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>2685.069851979754</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>2599.684762245938</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>2557.949110062151</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>2584.012783222609</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>2908.571108188821</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>3563.277154814544</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>4104.01609344662</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>4157.733433989342</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>4027.554790319944</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>3851.218243319912</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>3652.100725381912</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>3466.777971115106</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>3311.910535353986</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>3185.424756133207</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>1074.821988817376</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6768196335894</v>
+        <v>902.2602773006009</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7988268351121</v>
+        <v>736.3822845021236</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0408230858494</v>
+        <v>566.6242807528608</v>
       </c>
       <c r="F46" t="n">
-        <v>79.33376904760556</v>
+        <v>389.917226714617</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>224.3259517404447</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2576.866946179015</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2298.43394543212</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>2011.478437302551</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1739.452032888842</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1494.060278222255</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>1266.640607536363</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.337509942803763</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346.4825480643335</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>523.211515469691</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>281.2658014622311</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>423.2036007509799</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>281.2658014622311</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>78.54199711146066</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9878,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>655.9980117748582</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>68.74665626201977</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>46.14594532369222</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>22.57847517239588</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>4.288233995891801</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.6111317005618</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>181.2405908131636</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>176.2228056969017</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>160.795820744408</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>90.22000922290086</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>111.5412153120748</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>21.31245428628569</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>48.19697732171605</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>18.85389878049176</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>164.001275043861</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634086.9633264747</v>
+        <v>633822.3118877391</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634086.9633264747</v>
+        <v>633822.3118877391</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>634086.9633264747</v>
+        <v>639933.4430262697</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>412403.3103065031</v>
+        <v>550042.8893429874</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412403.310306503</v>
+        <v>550042.8893429873</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632763.9681173752</v>
+        <v>632763.9681173753</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632763.9681173754</v>
+        <v>632763.9681173752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412403.310306503</v>
+        <v>550042.8893429873</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>412403.310306503</v>
+        <v>550042.8893429873</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321688.391934245</v>
+      </c>
+      <c r="C2" t="n">
+        <v>321688.391934245</v>
+      </c>
+      <c r="D2" t="n">
         <v>321688.3919342451</v>
       </c>
-      <c r="C2" t="n">
-        <v>321688.3919342451</v>
-      </c>
-      <c r="D2" t="n">
-        <v>321688.391934245</v>
-      </c>
       <c r="E2" t="n">
-        <v>206027.3555759991</v>
+        <v>274788.9726212283</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>274788.9726212282</v>
       </c>
       <c r="G2" t="n">
         <v>316114.5504824113</v>
@@ -26350,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.355575999</v>
+        <v>274788.9726212282</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>274788.9726212283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630934</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>61110.89210613196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.13701620407</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>128068.9242817153</v>
+        <v>68679.35325209629</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607991</v>
+        <v>24064.94590686878</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607992</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607992</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>24064.94590686878</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742258</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110941.6745568746</v>
+        <v>-106981.1314435775</v>
       </c>
       <c r="C6" t="n">
-        <v>118385.9004156383</v>
+        <v>116718.5671404674</v>
       </c>
       <c r="D6" t="n">
-        <v>118385.9004156382</v>
+        <v>34762.64167163279</v>
       </c>
       <c r="E6" t="n">
-        <v>146378.3165230277</v>
+        <v>186561.9558669369</v>
       </c>
       <c r="F6" t="n">
-        <v>146378.3165230276</v>
+        <v>186561.9558669368</v>
       </c>
       <c r="G6" t="n">
-        <v>47918.9453279747</v>
+        <v>149601.3410202842</v>
       </c>
       <c r="H6" t="n">
         <v>210712.2331264162</v>
@@ -26543,13 +26545,13 @@
         <v>210712.2331264162</v>
       </c>
       <c r="J6" t="n">
-        <v>31666.97503876423</v>
+        <v>36060.88440871</v>
       </c>
       <c r="K6" t="n">
         <v>210712.2331264162</v>
       </c>
       <c r="L6" t="n">
-        <v>210712.2331264162</v>
+        <v>112568.0961102121</v>
       </c>
       <c r="M6" t="n">
         <v>210712.2331264162</v>
@@ -26558,10 +26560,10 @@
         <v>210712.2331264162</v>
       </c>
       <c r="O6" t="n">
-        <v>146378.3165230276</v>
+        <v>186561.9558669368</v>
       </c>
       <c r="P6" t="n">
-        <v>146378.3165230276</v>
+        <v>186561.9558669369</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773827</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773827</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773827</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>188.121426357896</v>
       </c>
       <c r="D2" t="n">
-        <v>241.9120801273014</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.07191583437711</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.07022658020566</v>
       </c>
       <c r="D5" t="n">
-        <v>387.8981474081796</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>54.79268646174614</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.7232059832931</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>304.6701708510469</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>31.78850328912267</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="H10" t="n">
-        <v>128.4628789093293</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.337509942803763</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346.4825480643335</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>523.211515469691</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,22 +35412,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>281.2658014622311</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35486,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>423.2036007509799</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,22 +35649,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>281.2658014622311</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>78.54199711146066</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,25 +36360,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36598,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>655.9980117748582</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>68.74665626201977</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>46.14594532369222</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>22.57847517239588</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1022104.077242097</v>
+        <v>1021418.144465049</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>967451.7036114035</v>
+        <v>967451.703611403</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>245.6396217305149</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>141.5695473865225</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,19 +715,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,10 +825,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>134.7806822622879</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.9735834668218</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>380.6908215082053</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>116.0434079398612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>49.09012368882289</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>369.0183967539543</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022729</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>429.4728140925191</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>61.27868575961875</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240.7959839668951</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>80.63562514394219</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225735</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>16.05512456153178</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>67.42894579208244</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>141.7034552100806</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3198,10 +3198,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3237,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,10 +3480,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>48.68433786290228</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.8908081770574</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>414.9071493079192</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>209.3478109192086</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,13 +4143,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>32.69681262526368</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.45039114996</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C2" t="n">
-        <v>947.3295611191371</v>
+        <v>1347.589877705439</v>
       </c>
       <c r="D2" t="n">
-        <v>511.4197762935816</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187678</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304467</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304467</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.1381447155</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>1625.995681294811</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.709557594464</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,40 +4500,40 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2533.918723136188</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2288.039276714643</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2009.606275967748</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.45937714051</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.8253404203546</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>543.2891570787331</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>511.4197762935816</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.408952615265</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>2181.553498026298</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.411034605609</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1354.124910905262</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516122</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>624.2616690759949</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>624.2616690759949</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705994</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2511.062984811828</v>
+        <v>2124.739183510336</v>
       </c>
       <c r="C8" t="n">
-        <v>2072.920511995252</v>
+        <v>1686.59671069376</v>
       </c>
       <c r="D8" t="n">
         <v>1637.010727169696</v>
@@ -4795,61 +4795,61 @@
         <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>373.9707213604629</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
         <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>1354.028756841915</v>
+        <v>652.3022337192184</v>
       </c>
       <c r="L8" t="n">
-        <v>1354.028756841915</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="M8" t="n">
-        <v>1354.028756841915</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N8" t="n">
-        <v>1697.046479425605</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.226145995911</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P8" t="n">
-        <v>3505.536020829308</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q8" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R8" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4137.536997724796</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T8" t="n">
-        <v>4137.536997724796</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U8" t="n">
-        <v>4137.536997724796</v>
+        <v>3741.899341731016</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.536997724796</v>
+        <v>3379.282391664842</v>
       </c>
       <c r="W8" t="n">
-        <v>3764.791142417772</v>
+        <v>2974.426937075876</v>
       </c>
       <c r="X8" t="n">
-        <v>3345.648678997083</v>
+        <v>2555.284473655187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2937.362555296736</v>
+        <v>2146.99834995484</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
         <v>1089.751822183213</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2292.605277761144</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C10" t="n">
-        <v>2120.043566244369</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D10" t="n">
-        <v>1954.165573445892</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E10" t="n">
-        <v>1784.407569696629</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F10" t="n">
-        <v>1607.700515658385</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G10" t="n">
-        <v>1604.52926163816</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H10" t="n">
-        <v>1604.52926163816</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I10" t="n">
-        <v>1604.52926163816</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
-        <v>1691.10894680285</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>1965.867401373986</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>2384.077283141946</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>2843.561150322859</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>3285.819953480504</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>3705.489202706285</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>4052.996096676627</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>4221.18887154096</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>4199.771050246331</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S10" t="n">
-        <v>4040.529681544328</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="T10" t="n">
-        <v>3794.650235122783</v>
+        <v>2665.52689540434</v>
       </c>
       <c r="U10" t="n">
-        <v>3516.217234375888</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V10" t="n">
-        <v>3229.261726246319</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W10" t="n">
-        <v>2957.235321832611</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X10" t="n">
-        <v>2711.843567166023</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y10" t="n">
-        <v>2484.423896480132</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1637.046905653768</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C11" t="n">
-        <v>1203.235982327991</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D11" t="n">
-        <v>1203.235982327991</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.235982327991</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F11" t="n">
-        <v>775.368552737199</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G11" t="n">
-        <v>373.9707213604629</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H11" t="n">
-        <v>84.84056680367918</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>519.6784648837371</v>
+        <v>364.4507277196352</v>
       </c>
       <c r="K11" t="n">
-        <v>1354.028756841915</v>
+        <v>1198.801019677813</v>
       </c>
       <c r="L11" t="n">
-        <v>2398.773002548303</v>
+        <v>2243.545265384201</v>
       </c>
       <c r="M11" t="n">
-        <v>2677.226145995911</v>
+        <v>2243.545265384201</v>
       </c>
       <c r="N11" t="n">
-        <v>2677.226145995911</v>
+        <v>2243.545265384201</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.226145995911</v>
+        <v>3223.724931954507</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.536020829308</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="Q11" t="n">
-        <v>4052.034806787903</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R11" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724796</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597835</v>
+        <v>4075.639335341344</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914852</v>
+        <v>3816.417032658361</v>
       </c>
       <c r="V11" t="n">
-        <v>3295.630517848678</v>
+        <v>3453.800082592187</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.775063259712</v>
+        <v>3048.944628003221</v>
       </c>
       <c r="X11" t="n">
-        <v>2471.632599839023</v>
+        <v>2629.802164582532</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.346476138676</v>
+        <v>2221.516040882185</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M12" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
-        <v>435.0457755574891</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
         <v>1089.751822183213</v>
@@ -5190,13 +5190,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
         <v>171.0034625955091</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1820.118209505448</v>
+        <v>2303.382956663067</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.975736688872</v>
+        <v>1865.24048384649</v>
       </c>
       <c r="D14" t="n">
-        <v>946.0659518633163</v>
+        <v>1429.330699020935</v>
       </c>
       <c r="E14" t="n">
-        <v>512.2912070216114</v>
+        <v>995.55595417923</v>
       </c>
       <c r="F14" t="n">
-        <v>84.42377743081919</v>
+        <v>567.6885245884378</v>
       </c>
       <c r="G14" t="n">
-        <v>84.42377743081919</v>
+        <v>166.2906932117016</v>
       </c>
       <c r="H14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
         <v>519.6784648837371</v>
@@ -5284,46 +5284,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>2398.773002548303</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M14" t="n">
-        <v>2677.226145995911</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N14" t="n">
-        <v>2677.226145995911</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O14" t="n">
-        <v>2677.226145995911</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P14" t="n">
-        <v>3505.536020829308</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q14" t="n">
-        <v>4052.034806787903</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R14" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>4137.536997724796</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>3917.469770597835</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>3658.247467914852</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="V14" t="n">
-        <v>3295.630517848678</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="W14" t="n">
-        <v>2890.775063259712</v>
+        <v>3557.111114269011</v>
       </c>
       <c r="X14" t="n">
-        <v>2471.632599839023</v>
+        <v>3137.968650848321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.346476138676</v>
+        <v>2729.682527147975</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L15" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.168023137207</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N15" t="n">
-        <v>1129.168023137207</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O15" t="n">
-        <v>1129.168023137207</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P15" t="n">
-        <v>1129.168023137207</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1669.906961769282</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
         <v>1747.663538909628</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>953.1589835504346</v>
+        <v>1023.579763733075</v>
       </c>
       <c r="C16" t="n">
-        <v>780.5972720336596</v>
+        <v>851.0180522163001</v>
       </c>
       <c r="D16" t="n">
-        <v>614.7192792351823</v>
+        <v>685.1400594178228</v>
       </c>
       <c r="E16" t="n">
-        <v>444.9612754859195</v>
+        <v>515.38205566856</v>
       </c>
       <c r="F16" t="n">
-        <v>268.2542214476757</v>
+        <v>338.6750016303162</v>
       </c>
       <c r="G16" t="n">
-        <v>102.6629464735034</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081919</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5463,25 +5463,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2701.083387333619</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T16" t="n">
-        <v>2455.203940912074</v>
+        <v>2525.624721094714</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.770940165179</v>
+        <v>2247.19172034782</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.81543203561</v>
+        <v>1960.23621221825</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.789027621901</v>
+        <v>1688.209807804542</v>
       </c>
       <c r="X16" t="n">
-        <v>1372.397272955314</v>
+        <v>1442.818053137954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.977602269422</v>
+        <v>1215.398382452062</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5661,13 +5661,13 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550759</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550759</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5794,10 +5794,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,22 +5992,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2650.81040391895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>839.0206718702449</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6885,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2221.516040882185</v>
+        <v>1720.698779469932</v>
       </c>
       <c r="C41" t="n">
-        <v>1783.373568065608</v>
+        <v>1720.698779469932</v>
       </c>
       <c r="D41" t="n">
-        <v>1347.463783240052</v>
+        <v>1284.788994644377</v>
       </c>
       <c r="E41" t="n">
-        <v>913.6890383983475</v>
+        <v>851.0142498026717</v>
       </c>
       <c r="F41" t="n">
-        <v>485.8216088075553</v>
+        <v>423.1468202118794</v>
       </c>
       <c r="G41" t="n">
-        <v>84.42377743081919</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
         <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>519.6784648837371</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1564.422710590125</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M41" t="n">
-        <v>1564.422710590125</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N41" t="n">
-        <v>2609.166956296512</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O41" t="n">
-        <v>2677.226145995911</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P41" t="n">
-        <v>3505.536020829308</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q41" t="n">
-        <v>4052.034806787903</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R41" t="n">
         <v>4221.18887154096</v>
@@ -7441,22 +7441,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.18887154096</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.18887154096</v>
+        <v>3741.899341731016</v>
       </c>
       <c r="V41" t="n">
-        <v>3858.571921474786</v>
+        <v>3379.282391664842</v>
       </c>
       <c r="W41" t="n">
-        <v>3453.71646688582</v>
+        <v>2974.426937075876</v>
       </c>
       <c r="X41" t="n">
-        <v>3034.57400346513</v>
+        <v>2555.284473655187</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.815611367093</v>
+        <v>2146.99834995484</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
         <v>1089.751822183213</v>
@@ -7560,13 +7560,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2491.601853236451</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C44" t="n">
-        <v>2072.503722622392</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.593937796836</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E44" t="n">
-        <v>1202.819192955131</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F44" t="n">
-        <v>774.9517633643391</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G44" t="n">
-        <v>373.5539319876029</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K44" t="n">
-        <v>84.42377743081919</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L44" t="n">
-        <v>1129.168023137207</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="M44" t="n">
-        <v>2173.912268843594</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N44" t="n">
-        <v>3218.656514549981</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O44" t="n">
-        <v>4198.836181120288</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P44" t="n">
-        <v>4198.836181120288</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q44" t="n">
-        <v>4198.836181120288</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R44" t="n">
         <v>4221.18887154096</v>
@@ -7678,22 +7678,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>4001.121644413998</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U44" t="n">
-        <v>3741.899341731015</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="V44" t="n">
-        <v>3741.899341731015</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="W44" t="n">
-        <v>3337.043887142048</v>
+        <v>3557.111114269011</v>
       </c>
       <c r="X44" t="n">
-        <v>2917.901423721359</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y44" t="n">
-        <v>2917.901423721359</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3064.120855053443</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>2957.664393890086</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>2862.574105036639</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>2768.453690363593</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>2685.069851979754</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>2599.684762245938</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>2557.949110062151</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
-        <v>2584.012783222609</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>2908.571108188821</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>3563.277154814544</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>4104.01609344662</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>4221.18887154096</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>4157.733433989342</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>4027.554790319944</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>3851.218243319912</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>3652.100725381912</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>3466.777971115106</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>3311.910535353986</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>3185.424756133207</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1074.821988817376</v>
+        <v>772.4997935538031</v>
       </c>
       <c r="C46" t="n">
-        <v>902.2602773006009</v>
+        <v>599.938082037028</v>
       </c>
       <c r="D46" t="n">
-        <v>736.3822845021236</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="E46" t="n">
-        <v>566.6242807528608</v>
+        <v>401.0330057786884</v>
       </c>
       <c r="F46" t="n">
-        <v>389.917226714617</v>
+        <v>224.3259517404447</v>
       </c>
       <c r="G46" t="n">
         <v>224.3259517404447</v>
       </c>
       <c r="H46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
         <v>171.0034625955091</v>
@@ -7830,28 +7830,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2701.083387333619</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S46" t="n">
-        <v>2701.083387333619</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T46" t="n">
-        <v>2576.866946179015</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U46" t="n">
-        <v>2298.43394543212</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V46" t="n">
-        <v>2011.478437302551</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W46" t="n">
-        <v>1739.452032888842</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.060278222255</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y46" t="n">
-        <v>1266.640607536363</v>
+        <v>964.3184122727903</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>133.9634028641226</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>346.4825480643335</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>990.0804712831379</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>282.8555053422384</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,19 +8698,19 @@
         <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>281.2658014622311</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>281.2658014622311</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>78.54199711146066</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9640,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,19 +10831,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>655.9980117748582</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>68.74665626201977</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1055.29721788524</v>
+        <v>786.1337475117263</v>
       </c>
       <c r="M44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>22.57847517239588</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>4.288233995891801</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.587869096073</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>181.2405908131636</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>205.6032278672737</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>73.62918697961808</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>90.22000922290086</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>48.19697732171664</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>348.6995152000665</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>21.31245428628569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>18.85389878049176</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>205.6032278672738</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>135.3636110865064</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>550042.8893429873</v>
+        <v>550042.8893429874</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632763.9681173753</v>
+        <v>632763.9681173752</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632763.9681173753</v>
+        <v>632763.9681173752</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632763.9681173753</v>
+        <v>632763.9681173752</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632763.9681173753</v>
+        <v>632763.9681173752</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632763.9681173752</v>
+        <v>632763.9681173753</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>550042.8893429873</v>
+        <v>550042.8893429874</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>550042.8893429873</v>
+        <v>550042.8893429874</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321688.3919342451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>321688.3919342451</v>
+      </c>
+      <c r="D2" t="n">
         <v>321688.391934245</v>
-      </c>
-      <c r="C2" t="n">
-        <v>321688.391934245</v>
-      </c>
-      <c r="D2" t="n">
-        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
         <v>274788.9726212283</v>
       </c>
       <c r="F2" t="n">
-        <v>274788.9726212282</v>
+        <v>274788.9726212283</v>
       </c>
       <c r="G2" t="n">
         <v>316114.5504824113</v>
@@ -26352,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
+        <v>274788.9726212283</v>
+      </c>
+      <c r="P2" t="n">
         <v>274788.9726212282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274788.9726212283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120456.7261630934</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613196</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.13701620407</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>68679.35325209629</v>
+        <v>68679.35325209625</v>
       </c>
       <c r="E4" t="n">
-        <v>24064.94590686878</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="F4" t="n">
         <v>24064.94590686879</v>
@@ -26459,7 +26459,7 @@
         <v>24064.94590686879</v>
       </c>
       <c r="P4" t="n">
-        <v>24064.94590686878</v>
+        <v>24064.94590686879</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106981.1314435775</v>
+        <v>-106981.1314435774</v>
       </c>
       <c r="C6" t="n">
-        <v>116718.5671404674</v>
+        <v>116718.5671404675</v>
       </c>
       <c r="D6" t="n">
-        <v>34762.64167163279</v>
+        <v>34762.64167163262</v>
       </c>
       <c r="E6" t="n">
-        <v>186561.9558669369</v>
+        <v>186366.5416197993</v>
       </c>
       <c r="F6" t="n">
-        <v>186561.9558669368</v>
+        <v>186366.5416197994</v>
       </c>
       <c r="G6" t="n">
-        <v>149601.3410202842</v>
+        <v>149578.1166809016</v>
       </c>
       <c r="H6" t="n">
-        <v>210712.2331264162</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="I6" t="n">
-        <v>210712.2331264162</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="J6" t="n">
-        <v>36060.88440871</v>
+        <v>36037.66006932737</v>
       </c>
       <c r="K6" t="n">
-        <v>210712.2331264162</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="L6" t="n">
-        <v>112568.0961102121</v>
+        <v>112544.8717708293</v>
       </c>
       <c r="M6" t="n">
-        <v>210712.2331264162</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="N6" t="n">
-        <v>210712.2331264162</v>
+        <v>210689.0087870335</v>
       </c>
       <c r="O6" t="n">
-        <v>186561.9558669368</v>
+        <v>186366.5416197993</v>
       </c>
       <c r="P6" t="n">
-        <v>186561.9558669369</v>
+        <v>186366.5416197992</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>387.7820112773827</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773827</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773827</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>188.121426357896</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>289.9811395907774</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>22.86827275269542</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>53.07022658020566</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>52.65760510107426</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27678,10 +27678,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>54.79268646174614</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>382.460563288477</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>31.78850328912267</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,16 +35175,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>133.9634028641226</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>346.4825480643335</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>990.0804712831377</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>282.8555053422384</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35418,19 +35418,19 @@
         <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
-        <v>281.2658014622311</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,25 +35652,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>281.2658014622311</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>78.54199711146066</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36360,25 +36360,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>-7.351962456398325e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>655.9980117748582</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37782,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>68.74665626201977</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1055.29721788524</v>
+        <v>786.1337475117263</v>
       </c>
       <c r="M44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>22.57847517239588</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
